--- a/biology/Botanique/Zygnemataceae/Zygnemataceae.xlsx
+++ b/biology/Botanique/Zygnemataceae/Zygnemataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Zygnemataceae (en français : Zygnématacées) sont une famille d'algues vertes de l'ordre des Zygnematales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Zygnema, composé du préfixe "zyg-", « joindre ; unir ; unis par deux », et du suffixe "-nem", « fil; filament ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 avril 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 avril 2018) :
 Cycloovoidites Krutzsch &amp; Pacltová
 Debarya (en) Wittrock
 Hallasia Rosenvinge
@@ -567,7 +583,7 @@
 Zygnema (en) C.Agardh
 Zygnemopsis (Skuja) Transeau
 Zygogonium (en) Kützing
-Selon BioLib                    (2 avril 2018)[2] :
+Selon BioLib                    (2 avril 2018) :
 Craterospermum A.Braun
 Cycloovoidites Krutzsch &amp; Pacltová
 Globulina Link
@@ -596,14 +612,14 @@
 Zygnema C. Agardh
 Zygnemopsis (Skuja) Transeau
 Zygogonium Kützing
-Selon Catalogue of Life                                   (2 avril 2018)[3] :
+Selon Catalogue of Life                                   (2 avril 2018) :
 Hallasia
 Lloydiella
 Lloydina
 Mougeotia
 Mougeotiopsis
 Serpentinaria
-Selon ITIS      (2 avril 2018)[4] :
+Selon ITIS      (2 avril 2018) :
 Cosmocladium Brebisson, 1856
 Debarya Wittrock, 1872
 Docidium Brebisson Ex Ralfs, 1848
@@ -616,13 +632,13 @@
 Teilingia P. Bourrelly, 1964
 Zygnema C. A. Agardh
 Zygogonium Kuetzing, 1843
-Selon Paleobiology Database                   (2 avril 2018)[5] :
+Selon Paleobiology Database                   (2 avril 2018) :
 Gelasinicysta
 Lecaniella
 Ovoidites
 Spirogyra
 Tetraporina
-Selon World Register of Marine Species                               (2 avril 2018)[6] :
+Selon World Register of Marine Species                               (2 avril 2018) :
 Debarya (Wittrock) Transeau, 1934
 Lloydina A.Ahmad &amp; M.Goldstein, 1972
 Mesocarpus Hassall
